--- a/基本設計/基本設計書.xlsx
+++ b/基本設計/基本設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F87679E-82FE-4BB2-ADC5-E35EDDFA51B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F02052-6B2A-404D-9580-E61695CACA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -815,35 +815,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,6 +852,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2688,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -4361,7 +4361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
@@ -6041,127 +6041,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="81" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="81" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="81" t="s">
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="83"/>
+      <c r="AG2" s="94"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="81" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="81" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="81" t="s">
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="83"/>
+      <c r="AG3" s="94"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="14"/>
       <c r="AJ3" s="14"/>
@@ -6633,98 +6633,98 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="16"/>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="75" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="75" t="s">
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="75" t="s">
+      <c r="I12" s="90"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="75" t="s">
+      <c r="L12" s="90"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="76"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="75" t="s">
+      <c r="O12" s="78"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="77"/>
-      <c r="S12" s="75" t="s">
+      <c r="R12" s="79"/>
+      <c r="S12" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="76"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="75" t="s">
+      <c r="T12" s="78"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="76"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="75" t="s">
+      <c r="W12" s="78"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="77"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="79"/>
       <c r="AF12" s="43"/>
       <c r="AG12" s="18"/>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="16"/>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="45"/>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="92" t="s">
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="94"/>
-      <c r="M13" s="93"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="87"/>
       <c r="N13" s="44" t="s">
         <v>28</v>
       </c>
       <c r="O13" s="36"/>
       <c r="P13" s="45"/>
-      <c r="Q13" s="92" t="s">
+      <c r="Q13" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="93"/>
-      <c r="S13" s="89" t="s">
+      <c r="R13" s="87"/>
+      <c r="S13" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="90"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="86" t="s">
+      <c r="T13" s="84"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="87"/>
-      <c r="X13" s="88"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="82"/>
       <c r="Y13" s="46" t="s">
         <v>33</v>
       </c>
@@ -7743,16 +7743,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K13:M13"/>
     <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -7767,6 +7757,16 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K13:M13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/基本設計/基本設計書.xlsx
+++ b/基本設計/基本設計書.xlsx
@@ -8,21 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F02052-6B2A-404D-9580-E61695CACA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956883D2-8BF4-427E-B374-FAC49B2BBC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
     <sheet name="IO関連図" sheetId="13" r:id="rId2"/>
-    <sheet name="画面レイアウト" sheetId="15" r:id="rId3"/>
+    <sheet name="IO関連図 (2)" sheetId="27" r:id="rId3"/>
+    <sheet name="画面レイアウト" sheetId="15" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'IO関連図 (2)'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">画面レイアウト!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">画面レイアウト!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'IO関連図 (2)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">画面レイアウト!$1:$3</definedName>
+    <definedName name="範囲１">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -405,6 +412,16 @@
     <t>D.Iブログ</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>生徒管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -703,7 +720,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -870,6 +887,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1066,6 +1097,825 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246380</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8423D34-C483-4E4B-B1BD-8407F1EA179B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3360420" y="3048000"/>
+          <a:ext cx="1960880" cy="684530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>プロスペクト登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC4EB6A-8B6D-4CA4-A52E-3CF2C4AD9C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2811780" y="1120140"/>
+          <a:ext cx="3249930" cy="1221740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>社員マスタ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>引合状況マスタ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>受注確度マスタ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>128270</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9247BC-B27A-4B8E-8D40-DFCF307AE326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6223000" y="2755900"/>
+          <a:ext cx="2927350" cy="1210310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>プロスペクト登録</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>プロスペクト詳細</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>引合先マスタ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130810</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36DED68E-2CB3-4623-8E00-7AA34C2D1A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4366260" y="4344670"/>
+          <a:ext cx="839470" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>月別受注</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>見込金額</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>135890</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>97790</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1529E14F-558F-45B7-8C0F-DBBDC6D680A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3237230" y="4489450"/>
+          <a:ext cx="807720" cy="499110"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>プロスペクト</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>一覧表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Line 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E7C522-411D-480D-A1F2-FC4F23F8A1CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4222750" y="2415540"/>
+          <a:ext cx="0" cy="568960"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54610</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ED86B4-EF25-4BA6-B344-1FAFDB6D5A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2446020" y="3379470"/>
+          <a:ext cx="709930" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{821B9D65-4354-4428-A337-654D36E6106E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5452110" y="3373120"/>
+          <a:ext cx="690880" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Line 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2E62C0-F27D-4CC9-9CF7-9D44D8E7DE7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4210050" y="3855720"/>
+          <a:ext cx="0" cy="351790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -1079,10 +1929,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6145" name="computr1">
+        <xdr:cNvPr id="2" name="computr1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A560A9F5-539B-46A2-A879-0C9795778C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38326821-BC82-47BD-99E0-6537631C94E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1092,8 +1942,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1619250" y="2997200"/>
-          <a:ext cx="698500" cy="762000"/>
+          <a:off x="3276600" y="2849880"/>
+          <a:ext cx="1692910" cy="797560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1321,20 +2171,20 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6146" name="Rectangle 2">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B602551C-237D-48D4-B115-7641580BEBA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CABEC38-1BC3-4BB3-899F-AB2267BF9537}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,8 +2194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3145790" y="2741930"/>
-          <a:ext cx="1960880" cy="684530"/>
+          <a:off x="6833870" y="2894330"/>
+          <a:ext cx="4307840" cy="715010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1372,22 +2222,7 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1403,16 +2238,6 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>D.I</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -1420,30 +2245,8 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>ブログ</a:t>
+            <a:t>プロスペクト登録</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1452,22 +2255,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>59690</xdr:colOff>
+      <xdr:colOff>196850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>208280</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6147" name="Rectangle 3">
+        <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6059F3AD-1C18-490E-927B-BA832C83DF12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A967F5E-1318-420E-8148-6B40909C0D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,8 +2280,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2597150" y="890270"/>
-          <a:ext cx="3249930" cy="1221740"/>
+          <a:off x="5751830" y="882650"/>
+          <a:ext cx="7273290" cy="1275080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,22 +2422,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:colOff>199390</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:colOff>199390</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6148" name="Line 4">
+        <xdr:cNvPr id="5" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F6E8DC-FD12-499E-88A0-AF2E5C06350A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BAF9F9-57AE-4749-A722-B02E89AB8954}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,8 +2447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4184650" y="2425700"/>
-          <a:ext cx="0" cy="565150"/>
+          <a:off x="8840470" y="2219960"/>
+          <a:ext cx="0" cy="591820"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1685,10 +2488,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6149" name="Line 5">
+        <xdr:cNvPr id="6" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BF62F8-124C-4119-9B48-8DB8DE719DA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC0C3D5-AAEF-4306-A55B-1E6AAE4FB0DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,8 +2501,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="2400300" y="3359150"/>
-          <a:ext cx="717550" cy="0"/>
+          <a:off x="5052060" y="3229610"/>
+          <a:ext cx="1380490" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1727,22 +2530,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>111760</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6150" name="Rectangle 6">
+        <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC234996-C0F7-48DB-A990-AF2F514DB078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36117093-5C64-4B36-8CF8-F5A4131A3A4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,8 +2555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6206490" y="2404110"/>
-          <a:ext cx="2927350" cy="1210310"/>
+          <a:off x="13597890" y="2480310"/>
+          <a:ext cx="6280150" cy="1271270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,10 +2709,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6151" name="Line 7">
+        <xdr:cNvPr id="8" name="Line 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE8245F-71D1-4978-80C7-C12662D14DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0360130E-2156-4545-9DF7-E64E91926E2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,8 +2722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5448300" y="3352800"/>
-          <a:ext cx="698500" cy="0"/>
+          <a:off x="11746230" y="3223260"/>
+          <a:ext cx="1361440" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1948,22 +2751,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>163830</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>163830</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6153" name="Line 9">
+        <xdr:cNvPr id="9" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBB748E-33D3-4312-BF9D-5BB8481DDC59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,8 +2776,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4171950" y="3816350"/>
-          <a:ext cx="0" cy="349250"/>
+          <a:off x="8804910" y="3736340"/>
+          <a:ext cx="0" cy="367030"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2002,22 +2805,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6154" name="AutoShape 10">
+        <xdr:cNvPr id="10" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146FEF65-1060-4169-998D-BB8249CBE3AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE68691C-C266-455E-A04A-DB396ABFAEAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,8 +2830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4311650" y="3916680"/>
-          <a:ext cx="839470" cy="640080"/>
+          <a:off x="9264650" y="4099560"/>
+          <a:ext cx="1845310" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2103,10 +2906,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6155" name="AutoShape 11">
+        <xdr:cNvPr id="11" name="AutoShape 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B4F0C6-6160-4771-9EA0-692E06BCADA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B4E3F7-B9E6-41C6-8935-FC5B81CC7950}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,8 +2919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3308350" y="4267200"/>
-          <a:ext cx="819150" cy="495300"/>
+          <a:off x="6954520" y="4191000"/>
+          <a:ext cx="1813560" cy="521970"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2180,7 +2983,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2387,6 +3190,24 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="表紙 "/>
+      <sheetName val="取引先マスタ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2688,7 +3509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -4361,8 +5182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -6024,6 +6845,1680 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7C60E6-F33A-4B03-8EAD-DDE9DC51509F}">
+  <dimension ref="A1:FU42"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.109375" style="95" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="96" customWidth="1"/>
+    <col min="7" max="33" width="4.109375" style="95" customWidth="1"/>
+    <col min="34" max="37" width="4" style="95" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="95"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+    </row>
+    <row r="2" spans="1:177" ht="13.05" customHeight="1">
+      <c r="A2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="97"/>
+    </row>
+    <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+      <c r="DO3" s="5"/>
+      <c r="DP3" s="5"/>
+      <c r="DQ3" s="5"/>
+      <c r="DR3" s="5"/>
+      <c r="DS3" s="5"/>
+      <c r="DT3" s="5"/>
+      <c r="DU3" s="5"/>
+      <c r="DV3" s="5"/>
+      <c r="DW3" s="5"/>
+      <c r="DX3" s="5"/>
+      <c r="DY3" s="5"/>
+      <c r="DZ3" s="5"/>
+      <c r="EA3" s="5"/>
+      <c r="EB3" s="5"/>
+      <c r="EC3" s="5"/>
+      <c r="ED3" s="5"/>
+      <c r="EE3" s="5"/>
+      <c r="EF3" s="5"/>
+      <c r="EG3" s="5"/>
+      <c r="EH3" s="5"/>
+      <c r="EI3" s="5"/>
+      <c r="EJ3" s="5"/>
+      <c r="EK3" s="5"/>
+      <c r="EL3" s="5"/>
+      <c r="EM3" s="5"/>
+      <c r="EN3" s="5"/>
+      <c r="EO3" s="5"/>
+      <c r="EP3" s="5"/>
+      <c r="EQ3" s="5"/>
+      <c r="ER3" s="5"/>
+      <c r="ES3" s="5"/>
+      <c r="ET3" s="5"/>
+      <c r="EU3" s="5"/>
+      <c r="EV3" s="5"/>
+      <c r="EW3" s="5"/>
+      <c r="EX3" s="5"/>
+      <c r="EY3" s="5"/>
+      <c r="EZ3" s="5"/>
+      <c r="FA3" s="5"/>
+      <c r="FB3" s="5"/>
+      <c r="FC3" s="5"/>
+      <c r="FD3" s="5"/>
+      <c r="FE3" s="5"/>
+      <c r="FF3" s="5"/>
+      <c r="FG3" s="5"/>
+      <c r="FH3" s="5"/>
+      <c r="FI3" s="5"/>
+      <c r="FJ3" s="5"/>
+      <c r="FK3" s="5"/>
+      <c r="FL3" s="5"/>
+      <c r="FM3" s="5"/>
+      <c r="FN3" s="5"/>
+      <c r="FO3" s="5"/>
+      <c r="FP3" s="5"/>
+      <c r="FQ3" s="5"/>
+      <c r="FR3" s="5"/>
+      <c r="FS3" s="5"/>
+      <c r="FT3" s="5"/>
+      <c r="FU3" s="5"/>
+    </row>
+    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="32"/>
+    </row>
+    <row r="5" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="18"/>
+    </row>
+    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="18"/>
+    </row>
+    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="18"/>
+    </row>
+    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="18"/>
+    </row>
+    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="18"/>
+    </row>
+    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="18"/>
+    </row>
+    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="18"/>
+    </row>
+    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="18"/>
+    </row>
+    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="18"/>
+    </row>
+    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="18"/>
+    </row>
+    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="18"/>
+    </row>
+    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="18"/>
+    </row>
+    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="18"/>
+    </row>
+    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="18"/>
+    </row>
+    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="18"/>
+    </row>
+    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="18"/>
+    </row>
+    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="18"/>
+    </row>
+    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="18"/>
+    </row>
+    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="18"/>
+    </row>
+    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="18"/>
+    </row>
+    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="18"/>
+    </row>
+    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="18"/>
+    </row>
+    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="18"/>
+    </row>
+    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="18"/>
+    </row>
+    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="18"/>
+    </row>
+    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="18"/>
+    </row>
+    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="18"/>
+    </row>
+    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="18"/>
+    </row>
+    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="18"/>
+    </row>
+    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="18"/>
+    </row>
+    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="18"/>
+    </row>
+    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A36" s="16"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="18"/>
+    </row>
+    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="18"/>
+    </row>
+    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="28"/>
+    </row>
+    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A39" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="18"/>
+    </row>
+    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A40" s="16"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="18"/>
+    </row>
+    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="18"/>
+    </row>
+    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
